--- a/outputFile/ariel4.xlsx
+++ b/outputFile/ariel4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ariel_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ariel_2</t>
+          <t>ariel_only</t>
         </is>
       </c>
     </row>
@@ -451,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.4583333333333333, 20], [0.48648648648648646, 11], [0.48484848484848486, 8]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.5161290322580646, 6], [0.4, 3], [0.2857142857142857, 1]]</t>
+          <t>[[0.48979591836734687, 20], [0.5, 10], [0.4666666666666667, 6]]</t>
         </is>
       </c>
     </row>
@@ -466,12 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.5945945945945946, 9], [0.5161290322580646, 6], [0.4, 3]]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[[0.42857142857142855, 5], [0.2, 1], [0.10526315789473684, 1]]</t>
+          <t>[[0.5161290322580646, 6], [0.3333333333333333, 3], [0.1, 2]]</t>
         </is>
       </c>
     </row>
@@ -481,12 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.5, 10], [0.4666666666666667, 6], [0.2727272727272727, 2]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[0.2857142857142857, 1], [0.10526315789473684, 1], [0, 0]]</t>
+          <t>[[0.3478260869565218, 2], [0.1, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
